--- a/SentimentPerformer/sentimentOutput.xlsx
+++ b/SentimentPerformer/sentimentOutput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Desktop\JewlzAndTheBoyz-EmailCategorizationBot-P2\SentimentPerformer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagib\Documents\Revature\JewlzAndTheBoyz-EmailCategorizationBot-P2\SentimentPerformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2B96B-E653-4D8B-8B73-C23246FE7EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EA57B-918F-4D74-A899-B761210E1392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8111EC3B-2BFB-4781-A84F-A3A7532AC913}"/>
+    <workbookView xWindow="34890" yWindow="2100" windowWidth="17280" windowHeight="9030" xr2:uid="{8111EC3B-2BFB-4781-A84F-A3A7532AC913}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="28">
   <si>
     <t>Foley</t>
   </si>
@@ -707,6 +707,908 @@
   </si>
   <si>
     <t>Confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five stars_x000D_
+</t>
+  </si>
+  <si>
+    <t>Very Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One star_x000D_
+</t>
+  </si>
+  <si>
+    <t>Barney</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; Texas Attorney General Ken Paxton sued four states that Biden won, claiming their changes to election procedures during the pandemic violated federal law. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fea111707765057875-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471&amp;d=60135" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa1ce577512bf58b7949f08ad52acebce95eec7fe97c8a8e577ea2fa54647a9e0813235761ae730ff0017cadcf8615eb2a264fe26a90e78e29" style="color:#000000; text-decoration:none;"&gt;Supreme Court Shuts Door On Trump Election Prospects&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; Texas Attorney General Ken Paxton sued four states that Biden won, claiming their changes to election procedures during the pandemic violated federal law. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa1ce577512bf58b7949f08ad52acebce95eec7fe97c8a8e577ea2fa54647a9e0813235761ae730ff0017cadcf8615eb2a264fe26a90e78e29"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/11/gettyimages-1219321528_sq-d7b612f4c7de4e1b8671a3c40f06fb45aaf2c76e.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa1ce577512bf58b7949f08ad52acebce95eec7fe97c8a8e577ea2fa54647a9e0813235761ae730ff0017cadcf8615eb2a264fe26a90e78e29" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=e01ca3a162ad11faaf84c3a3e1d965a6a30a3ef2f975d74d35c4d36954305f469b712376c680f29c54da27b901aa7083a6842f86c556b323" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa5a8b46197bb7f30673f97a16a72568ef3afddfec238d37be9d6f51acc48cf2db0e618db46658c7a4f98bae4e31b79611" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; President Trump said on Twitter that his personal attorney, Rudy Giuliani, had tested positive for the coronavirus. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fe8e11707563027a7d-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5f555e0e8f0baea92239294d28f5c9b6a046b4e360187b1bcf9ba68057e3828591e81ea9ca40495278152574de1d0b8abbd26234e8bb49c1d" style="color:#000000; text-decoration:none;"&gt;Rudy Giuliani Tests Positive For Coronavirus, Trump Says&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; President Trump said on Twitter that his personal attorney, Rudy Giuliani, had tested positive for the coronavirus. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5f555e0e8f0baea92239294d28f5c9b6a046b4e360187b1bcf9ba68057e3828591e81ea9ca40495278152574de1d0b8abbd26234e8bb49c1d"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/06/gettyimages-1229917791_sq-5471e93ad7fa618f782a0ba469ee704154e46e29.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5f555e0e8f0baea92239294d28f5c9b6a046b4e360187b1bcf9ba68057e3828591e81ea9ca40495278152574de1d0b8abbd26234e8bb49c1d" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=5dd470b70c9d73e50b6f0e21c73e9efa4cc45b7af488efa9712d1d5eece15c398e8eaca3c8ad3d7bf657e36e4c65046490316c8037cf2694" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5a14be59281cc66132ced75ff615df46f333d4818d2ce7659737f2ee7dd3f6d44a17eac8f7a11cafe6001bf207c307e68" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; Federal Judge Nicholas Garaufis instructed the Department of Homeland Security to begin accepting new applications for the DACA program as soon as Monday. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fea111707560047974-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3633da1bd2394297117210423f8a59e805ce043d64a3dcb42fb7827657b1f92bd3f123cd65550569d72697cca92cbdee34ee710c1833064d1" style="color:#000000; text-decoration:none;"&gt;Judge Orders Trump Administration To Restore DACA As It Existed Under Obama&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; Federal Judge Nicholas Garaufis instructed the Department of Homeland Security to begin accepting new applications for the DACA program as soon as Monday. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3633da1bd2394297117210423f8a59e805ce043d64a3dcb42fb7827657b1f92bd3f123cd65550569d72697cca92cbdee34ee710c1833064d1"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/04/ap_20170856843469_sq-402ad1ee5b4d9335ed579b267e4fe93a25d37502.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3633da1bd2394297117210423f8a59e805ce043d64a3dcb42fb7827657b1f92bd3f123cd65550569d72697cca92cbdee34ee710c1833064d1" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3134ea49e53aab3b1adff1a7b2a32d77b35cc25df94e96407dadaeb2ca20bd510db11ab5f4901885c5364959ae44fd5b2" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=46bc02ba2938bbd34994cf265e385bc43acfea92eead3535be53c7a87dbb0122a4105bdeed710fd5a332bcd8de2737c0c6aa16d08b7e6d7d" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; The Jan. 6 auction could conclude a bitter, decades-long battle over drilling in the pristine region. If leases are finalized before Joe Biden takes office, they could be difficult to revoke. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fe9811707564017570-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=269d489894aa2114358dfc82269bddfd3de64c72b3d0a6d2e7993b5777726b8ebccb084dfe4b2ede7b8a48f93e805d3da6377a473c675caf8e5422ca0833102f" style="color:#000000; text-decoration:none;"&gt;Trump Administration Rushes To Sell Oil Drilling Rights In Arctic Wildlife Refuge&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; The Jan. 6 auction could conclude a bitter, decades-long battle over drilling in the pristine region. If leases are finalized before Joe Biden takes office, they could be difficult to revoke. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=269d489894aa2114358dfc82269bddfd3de64c72b3d0a6d2e7993b5777726b8ebccb084dfe4b2ede7b8a48f93e805d3da6377a473c675caf8e5422ca0833102f"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/03/ap_19296784860336_sq-d44fe630f8669cd09d8597382339279e4004bf6f.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=269d489894aa2114358dfc82269bddfd3de64c72b3d0a6d2e7993b5777726b8ebccb084dfe4b2ede7b8a48f93e805d3da6377a473c675caf8e5422ca0833102f" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=269d489894aa21144698ca541459c58510ea3cfe5b272dc860dbdebae6781ffd0272618f10f14df76311099d4d055719dc29935ea8e4eb20" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=269d489894aa211412e0aba581b91df91eb0f1541fd12aee012b5bcfd6270df0d06cab3f8e074f9cd4483da5c726f3417e4ea5159b412c7d" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; Three sources in Trump's orbit tell NPR he is seriously considering running for a second term as president in 2024. Trump himself alluded to it at private party this week. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fe7d10797c6d077a7c-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff63177470" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=97c56311bef4250da18e12d07e84ced1adcedff8c6a5104ebd7ff24c286a2ee48641452d2376d061f7305eb061fa6f563931a5f3af8672701b8c9606535d5b39" style="color:#000000; text-decoration:none;"&gt;President Trump Seriously Considering 2024 Run As He Continues False 2020 Claims &lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; Three sources in Trump's orbit tell NPR he is seriously considering running for a second term as president in 2024. Trump himself alluded to it at private party this week. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=97c56311bef4250da18e12d07e84ced1adcedff8c6a5104ebd7ff24c286a2ee48641452d2376d061f7305eb061fa6f563931a5f3af8672701b8c9606535d5b39"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/02/ap_20332599384512_sq-cb8ebabbf09a7a4052d5321ccb0a74d9b54b7874.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=97c56311bef4250da18e12d07e84ced1adcedff8c6a5104ebd7ff24c286a2ee48641452d2376d061f7305eb061fa6f563931a5f3af8672701b8c9606535d5b39" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=97c56311bef4250d8bfab0052f93265f24144871604ab19d94bbb0acfa530aa9a7c00cbb076b83028aaeaced0bfa3c7304bb68696d909619" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=97c56311bef4250d38cf6e6dbd69c04adb863d9e7abdea353fc78dd6c1732b4341de28a2997ea9c7ac7916bbf3f1ca073ae57c478f62bc1f" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
   </si>
 </sst>
 </file>
@@ -1070,20 +1972,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0FD7AD-9817-4682-957D-B84F878E85D2}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1097,116 +1999,1404 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.41</v>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/SentimentPerformer/sentimentOutput.xlsx
+++ b/SentimentPerformer/sentimentOutput.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Desktop\JewlzAndTheBoyz-EmailCategorizationBot-P2\SentimentPerformer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagib\Documents\Revature\JewlzAndTheBoyz-EmailCategorizationBot-P2\SentimentPerformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2B96B-E653-4D8B-8B73-C23246FE7EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC78A6-DC06-426F-8ADA-5BEFF486CF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8111EC3B-2BFB-4781-A84F-A3A7532AC913}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{8111EC3B-2BFB-4781-A84F-A3A7532AC913}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="12_14_2020" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="28">
   <si>
     <t>Foley</t>
   </si>
@@ -707,6 +708,908 @@
   </si>
   <si>
     <t>Confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Five stars_x000D_
+</t>
+  </si>
+  <si>
+    <t>Very Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One star_x000D_
+</t>
+  </si>
+  <si>
+    <t>Barney</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; Texas Attorney General Ken Paxton sued four states that Biden won, claiming their changes to election procedures during the pandemic violated federal law. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fea111707765057875-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471&amp;d=60135" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa1ce577512bf58b7949f08ad52acebce95eec7fe97c8a8e577ea2fa54647a9e0813235761ae730ff0017cadcf8615eb2a264fe26a90e78e29" style="color:#000000; text-decoration:none;"&gt;Supreme Court Shuts Door On Trump Election Prospects&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; Texas Attorney General Ken Paxton sued four states that Biden won, claiming their changes to election procedures during the pandemic violated federal law. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa1ce577512bf58b7949f08ad52acebce95eec7fe97c8a8e577ea2fa54647a9e0813235761ae730ff0017cadcf8615eb2a264fe26a90e78e29"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/11/gettyimages-1219321528_sq-d7b612f4c7de4e1b8671a3c40f06fb45aaf2c76e.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa1ce577512bf58b7949f08ad52acebce95eec7fe97c8a8e577ea2fa54647a9e0813235761ae730ff0017cadcf8615eb2a264fe26a90e78e29" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=e01ca3a162ad11faaf84c3a3e1d965a6a30a3ef2f975d74d35c4d36954305f469b712376c680f29c54da27b901aa7083a6842f86c556b323" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=e01ca3a162ad11fa5a8b46197bb7f30673f97a16a72568ef3afddfec238d37be9d6f51acc48cf2db0e618db46658c7a4f98bae4e31b79611" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; President Trump said on Twitter that his personal attorney, Rudy Giuliani, had tested positive for the coronavirus. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fe8e11707563027a7d-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5f555e0e8f0baea92239294d28f5c9b6a046b4e360187b1bcf9ba68057e3828591e81ea9ca40495278152574de1d0b8abbd26234e8bb49c1d" style="color:#000000; text-decoration:none;"&gt;Rudy Giuliani Tests Positive For Coronavirus, Trump Says&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; President Trump said on Twitter that his personal attorney, Rudy Giuliani, had tested positive for the coronavirus. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5f555e0e8f0baea92239294d28f5c9b6a046b4e360187b1bcf9ba68057e3828591e81ea9ca40495278152574de1d0b8abbd26234e8bb49c1d"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/06/gettyimages-1229917791_sq-5471e93ad7fa618f782a0ba469ee704154e46e29.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5f555e0e8f0baea92239294d28f5c9b6a046b4e360187b1bcf9ba68057e3828591e81ea9ca40495278152574de1d0b8abbd26234e8bb49c1d" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=5dd470b70c9d73e50b6f0e21c73e9efa4cc45b7af488efa9712d1d5eece15c398e8eaca3c8ad3d7bf657e36e4c65046490316c8037cf2694" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=5dd470b70c9d73e5a14be59281cc66132ced75ff615df46f333d4818d2ce7659737f2ee7dd3f6d44a17eac8f7a11cafe6001bf207c307e68" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; Federal Judge Nicholas Garaufis instructed the Department of Homeland Security to begin accepting new applications for the DACA program as soon as Monday. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fea111707560047974-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3633da1bd2394297117210423f8a59e805ce043d64a3dcb42fb7827657b1f92bd3f123cd65550569d72697cca92cbdee34ee710c1833064d1" style="color:#000000; text-decoration:none;"&gt;Judge Orders Trump Administration To Restore DACA As It Existed Under Obama&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; Federal Judge Nicholas Garaufis instructed the Department of Homeland Security to begin accepting new applications for the DACA program as soon as Monday. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3633da1bd2394297117210423f8a59e805ce043d64a3dcb42fb7827657b1f92bd3f123cd65550569d72697cca92cbdee34ee710c1833064d1"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/04/ap_20170856843469_sq-402ad1ee5b4d9335ed579b267e4fe93a25d37502.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3633da1bd2394297117210423f8a59e805ce043d64a3dcb42fb7827657b1f92bd3f123cd65550569d72697cca92cbdee34ee710c1833064d1" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=46bc02ba2938bbd3134ea49e53aab3b1adff1a7b2a32d77b35cc25df94e96407dadaeb2ca20bd510db11ab5f4901885c5364959ae44fd5b2" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=46bc02ba2938bbd34994cf265e385bc43acfea92eead3535be53c7a87dbb0122a4105bdeed710fd5a332bcd8de2737c0c6aa16d08b7e6d7d" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; The Jan. 6 auction could conclude a bitter, decades-long battle over drilling in the pristine region. If leases are finalized before Joe Biden takes office, they could be difficult to revoke. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fe9811707564017570-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff64177471" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=269d489894aa2114358dfc82269bddfd3de64c72b3d0a6d2e7993b5777726b8ebccb084dfe4b2ede7b8a48f93e805d3da6377a473c675caf8e5422ca0833102f" style="color:#000000; text-decoration:none;"&gt;Trump Administration Rushes To Sell Oil Drilling Rights In Arctic Wildlife Refuge&lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; The Jan. 6 auction could conclude a bitter, decades-long battle over drilling in the pristine region. If leases are finalized before Joe Biden takes office, they could be difficult to revoke. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=269d489894aa2114358dfc82269bddfd3de64c72b3d0a6d2e7993b5777726b8ebccb084dfe4b2ede7b8a48f93e805d3da6377a473c675caf8e5422ca0833102f"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/03/ap_19296784860336_sq-d44fe630f8669cd09d8597382339279e4004bf6f.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=269d489894aa2114358dfc82269bddfd3de64c72b3d0a6d2e7993b5777726b8ebccb084dfe4b2ede7b8a48f93e805d3da6377a473c675caf8e5422ca0833102f" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=269d489894aa21144698ca541459c58510ea3cfe5b272dc860dbdebae6781ffd0272618f10f14df76311099d4d055719dc29935ea8e4eb20" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=269d489894aa211412e0aba581b91df91eb0f1541fd12aee012b5bcfd6270df0d06cab3f8e074f9cd4483da5c726f3417e4ea5159b412c7d" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//W3C//DTD HTML 4.01 Transitional//EN" "http://www.w3.org/TR/html4/loose.dtd"&gt;_x000D_
+&lt;html&gt;_x000D_
+  &lt;head&gt;_x000D_
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1, maximum-scale=1, user-scalable=0"&gt;_x000D_
+    &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      ReadMsgBody{ width: 100%;}_x000D_
+      .ExternalClass {width: 100%;}_x000D_
+      .ExternalClass, .ExternalClass p, .ExternalClass span, .ExternalClass font, .ExternalClass td, .ExternalClass div {line-height: 100%;}_x000D_
+      body {-webkit-text-size-adjust:100%; -ms-text-size-adjust:100%;margin:0 !important;}_x000D_
+      p { margin: 1em 0;}_x000D_
+      table td { border-collapse: collapse;}_x000D_
+      img {outline:0;}_x000D_
+      a img {border:none;}_x000D_
+      @-ms-viewport{ width: device-width;}_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;style type="text/css"&gt;_x000D_
+      @media only screen and (max-width: 480px) {_x000D_
+        .container {width: 100% !important;}_x000D_
+        .footer { width:auto !important; margin-left:0; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        img { max-width:100% !important; height:auto !important; max-height:auto !important;}_x000D_
+        .header img{max-width:100% !important;height:auto !important; max-height:auto !important;}_x000D_
+        .photo img { width:100% !important; max-width:100% !important; height:auto !important;}_x000D_
+        .drop { display:block !important; width: 100% !important; float:left; clear:both;}_x000D_
+        .footerlogo { display:block !important; width: 100% !important; padding-top:15px; float:left; clear:both;}_x000D_
+        .nav4, .nav5, .nav6 { display: none !important; }_x000D_
+        .tableBlock {width:100% !important;}_x000D_
+        .responsive-td {width:100% !important; display:block !important; padding:0 !important; }_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        /* MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+body, .tb_properties{font-family: Georgia, serif !important; font-size: 16px !important; color: #333333 !important; line-height: 1.5 !important; padding: 0px !important; }.buttonstyles{font-family: Arial, helvetica, sans-serif !important; font-size: 16px !important; color: #FFFFFF !important; padding: 10px !important; }h1{font-family: Arial !important; font-size: 22px !important; color: #333333 !important; line-height: 1.15 !important; }h2{font-family: Arial !important; font-size: 20px !important; color: #333333 !important; line-height: 1.15 !important; }h3{font-family: Arial !important; font-size: 18px !important; color: #333333 !important; line-height: 1.15 !important; }a:not(.buttonstyles){line-height: 1.15 !important; }.mobile-hidden{display: none !important; }.responsive-td {width: 100% !important; display: block !important; padding: 0 !important;}_x000D_
+/* END OF MOBILE GLOBAL STYLES - DO NOT CHANGE */_x000D_
+      }_x000D_
+      @media only screen and (max-width: 640px) {_x000D_
+        .container { width:100% !important; }_x000D_
+        .mobile-hidden { display:none !important; }_x000D_
+        .logo { display:block !important; padding:0 !important; }_x000D_
+        .photo img { width:100% !important; height:auto !important;}_x000D_
+        .nav5, .nav6 { display: none !important;}_x000D_
+        .fluid, .fluid-centered {_x000D_
+          width: 100% !important;_x000D_
+          max-width: 100% !important;_x000D_
+          height: auto !important;_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+        .fluid-centered {_x000D_
+          margin-left: auto !important;_x000D_
+          margin-right: auto !important;_x000D_
+        }_x000D_
+      }_x000D_
+    &lt;/style&gt;_x000D_
+    &lt;!--[if mso]&gt;       &lt;style type="text/css"&gt;           /* Begin Outlook Font Fix */               body, table, td {                  font-family : Georgia, serif;                  line-height : 150%;                  font-size : 16px;                  color : #333333;               }           /* End Outlook Font Fix */       &lt;/style&gt;     &lt;![endif]--&gt;_x000D_
+  &lt;/head&gt;_x000D_
+  _x000D_
+_x000D_
+_x000D_
+_x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+  _x000D_
+ _x000D_
+   _x000D_
+  _x000D_
+   _x000D_
+  _x000D_
+ _x000D_
+_x000D_
+_x000D_
+_x000D_
+  &lt;body bgcolor="#EFEFEF" text="#808080" style="margin: 0px; -webkit-text-size-adjust:none;background-color : #EFEFEF; font-family : Georgia, serif; line-height : 150%; font-size : 16px; color : #333333; padding : 5px; "&gt;&lt;style type="text/css"&gt;_x000D_
+div.preheader _x000D_
+{ display: none !important; } _x000D_
+&lt;/style&gt;_x000D_
+&lt;div class="preheader" style="font-size: 1px; display: none !important;"&gt; Three sources in Trump's orbit tell NPR he is seriously considering running for a second term as president in 2024. Trump himself alluded to it at private party this week. &lt;/div&gt;_x000D_
+    &lt;div style="font-size:0; line-height:0;"&gt;&lt;img src="http://click.nl.npr.org/open.aspx?ffcb10-fe7d10797c6d077a7c-fdec16787062077f7d137570-fe8e12747761037574-feef1274736d03-fe3510797164047f711770-ff63177470" width="1" height="1"&gt;&lt;/div&gt;_x000D_
+    &lt;table width="100%" border="0" cellpadding="0" cellspacing="0" align="center"&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top"&gt;_x000D_
+          _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td align="center"&gt;_x000D_
+          &lt;table cellspacing="0" cellpadding="0" border="0" width="600" class="container" align="center"&gt;_x000D_
+            &lt;tr&gt;_x000D_
+              &lt;td&gt;_x000D_
+                &lt;!-- added the border style here --&gt;_x000D_
+                &lt;table style="background-color : #FFFFFF; border : 0px;font-size : 16px; font-family : Georgia, serif; line-height : 150%; color : #333333; " class="tb_properties border_style" cellspacing="0" cellpadding="0" bgcolor="#FFFFFF" width="100%"&gt;_x000D_
+                  &lt;!-- end of comment --&gt;_x000D_
+                  &lt;tr&gt;_x000D_
+                    &lt;td align="center" valign="top"&gt;_x000D_
+                      &lt;table align="left" border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                        &lt;tr&gt;_x000D_
+                          &lt;!-- added padding here --&gt;_x000D_
+                          &lt;td class="content_padding" style="border:0px;padding : 10px 20px; "&gt;_x000D_
+                            &lt;!-- end of comment --&gt;_x000D_
+                            &lt;table border="0" cellpadding="0" cellspacing="0" width="100%"&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="header" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 30px 10px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;img data-assetid="94245" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/93d8e91c-307b-41d9-856a-8d53e418ef0b.png" height="66" width="250" style="display: block; height: 66px; width: 250px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="border: 0px solid transparent; background-color: transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 0px 0px 25px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 100%; padding-bottom: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 10px 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;div style="line-height: 1.15;"&gt;_x000D_
+	&lt;b&gt;&lt;span style="font-size:30px;"&gt;&lt;span style="font-family:arial,helvetica,sans-serif;"&gt;&lt;a href="http://click.nl.npr.org/?qs=97c56311bef4250da18e12d07e84ced1adcedff8c6a5104ebd7ff24c286a2ee48641452d2376d061f7305eb061fa6f563931a5f3af8672701b8c9606535d5b39" style="color:#000000; text-decoration:none;"&gt;President Trump Seriously Considering 2024 Run As He Continues False 2020 Claims &lt;/a&gt;&lt;/span&gt;&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" style="width: 75%; padding-top: 5px; padding-right: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 4px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;p&gt; Three sources in Trump's orbit tell NPR he is seriously considering running for a second term as president in 2024. Trump himself alluded to it at private party this week. &lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;td valign="top" style="width: 25%; padding-top: 5px; padding-left: 5px;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px 0px; " class="stylingblock-content-wrapper camarker-inner"&gt; &lt;a href="http://click.nl.npr.org/?qs=97c56311bef4250da18e12d07e84ced1adcedff8c6a5104ebd7ff24c286a2ee48641452d2376d061f7305eb061fa6f563931a5f3af8672701b8c9606535d5b39"&gt; &lt;img src="https://media.npr.org/assets/img/2020/12/02/ap_20332599384512_sq-cb8ebabbf09a7a4052d5321ccb0a74d9b54b7874.jpg?s=12" width="120"&gt; &lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;table border="0" cellspacing="0" cellpadding="0"&gt;&lt;tr&gt;&lt;td class="innertd buttonblock" bgcolor="#2C63AE" style=" border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px; background-color: #2C63AE;"&gt;&lt;a target="_blank" class="buttonstyles" style=" font-size: 18px; font-family: Arial, helvetica, sans-serif; color: #FFFFFF; text-align: center; text-decoration: none; display: block; background-color: #2C63AE; border: 1px solid #2C63AE; padding: 10px 60px; border-radius: 3px; -moz-border-radius: 3px; -webkit-border-radius: 3px;" href="http://click.nl.npr.org/?qs=97c56311bef4250da18e12d07e84ced1adcedff8c6a5104ebd7ff24c286a2ee48641452d2376d061f7305eb061fa6f563931a5f3af8672701b8c9606535d5b39" title=""   data-linkto="other"&gt;Read More&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; border: 0px solid transparent; min-width: 100%; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 10px 0px 20px; " class="slot-styling camarker-inner"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" class="stylingblock-content-wrapper" style="min-width: 100%; "&gt;&lt;tr&gt;&lt;td class="stylingblock-content-margin-cell" style="padding: 10px 0px; "&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td style="padding: 0px; " class="stylingblock-content-wrapper camarker-inner"&gt;    &lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                              &lt;tr&gt;_x000D_
+                                &lt;td align="left" class="" valign="top"&gt;_x000D_
+                                  &lt;table cellpadding="0" cellspacing="0" width="100%" style="background-color: transparent; min-width: 100%; border-top: 0px; border-right: 0px; border-bottom: 1px solid #E0E0E0; border-left: 0px; " class="slot-styling"&gt;&lt;tr&gt;&lt;td style="padding: 20px 0px; " class="slot-styling camarker-inner"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+                                  _x000D_
+                                &lt;/td&gt;_x000D_
+                              &lt;/tr&gt;_x000D_
+                            &lt;/table&gt;_x000D_
+                          &lt;/td&gt;_x000D_
+                        &lt;/tr&gt;_x000D_
+                      &lt;/table&gt;_x000D_
+                    &lt;/td&gt;_x000D_
+                  &lt;/tr&gt; _x000D_
+                  &lt;tr&gt;&lt;td style="text-align:center;"&gt;&lt;div&gt;_x000D_
+           &lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td&gt;&lt;table cellspacing="0" cellpadding="0" style="width: 100%;"&gt;&lt;tr&gt;&lt;td valign="top" class="responsive-td" style="width: 100%;"&gt;&lt;table cellpadding="0" cellspacing="0" width="100%" role="presentation" style="min-width: 100%; " class="stylingblock-content-wrapper"&gt;&lt;tr&gt;&lt;td class="stylingblock-content-wrapper camarker-inner"&gt;&lt;table width="100%" cellspacing="0" cellpadding="0" border="0"&gt;_x000D_
+    &lt;tr&gt;_x000D_
+        &lt;td align="center" valign="top" width="100%"&gt;_x000D_
+            _x000D_
+                _x000D_
+                &lt;table class="container" cellpadding="0" cellspacing="0" width="600"&gt;&lt;tr&gt;_x000D_
+                    &lt;td align="center" style="font-family: Verdana, Helvetica, Arial, sans-serif; font-size: 11px; color: #959595; padding:20px; line-height: 1.5;"&gt;You received this message because you're subscribed to &lt;strong&gt;Breaking News Alerts&lt;/strong&gt; emails. This email was sent by National Public Radio, Inc., 1111 North Capitol Street NE, Washington, DC 20002&lt;br&gt;&lt;br&gt;&lt;strong&gt;&lt;a   href="http://click.nl.npr.org/?qs=97c56311bef4250d8bfab0052f93265f24144871604ab19d94bbb0acfa530aa9a7c00cbb076b83028aaeaced0bfa3c7304bb68696d909619" style="color:#5D5D5D;text-decoration:underline;" title=""&gt;Unsubscribe&lt;/a&gt;&amp;nbsp; |&amp;nbsp; &lt;a   href="http://click.nl.npr.org/?qs=97c56311bef4250d38cf6e6dbd69c04adb863d9e7abdea353fc78dd6c1732b4341de28a2997ea9c7ac7916bbf3f1ca073ae57c478f62bc1f" style="color:#5D5D5D;text-decoration:underline; line-height: 6px;" title="NPR Privacy Policy"&gt;Privacy Policy&lt;/a&gt;&lt;/strong&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+                &lt;tr&gt;_x000D_
+                    &lt;td align="center" style="padding:10px 10px 25px 10px;"&gt;&lt;img data-assetid="70315" alt="NPR logo" src="http://image.nl.npr.org/lib/fe8e12747761037574/m/1/52042b57-32f9-47cb-a264-2b05abff6312.png" height="20" width="60" style="display: block; height: 20px; width: 60px; text-align: center; padding: 0px;"&gt;&lt;/td&gt;_x000D_
+                &lt;/tr&gt;_x000D_
+            &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+    &lt;/tr&gt;_x000D_
+&lt;/table&gt;_x000D_
+&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;_x000D_
+          &lt;/div&gt;&lt;/td&gt;&lt;/tr&gt;_x000D_
+                &lt;/table&gt;_x000D_
+              &lt;/td&gt;_x000D_
+            &lt;/tr&gt;_x000D_
+          &lt;/table&gt;_x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+      &lt;tr&gt;_x000D_
+        &lt;td valign="top"&gt;_x000D_
+           _x000D_
+        &lt;/td&gt;_x000D_
+      &lt;/tr&gt;_x000D_
+    &lt;/table&gt;_x000D_
+  &lt;/body&gt;_x000D_
+&lt;/html&gt;_x000D_
+</t>
   </si>
 </sst>
 </file>
@@ -1069,21 +1972,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0FD7AD-9817-4682-957D-B84F878E85D2}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9553F-B1AF-41A8-B38F-B3ECC9802A8F}">
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0FD7AD-9817-4682-957D-B84F878E85D2}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1097,116 +2183,1404 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.41</v>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
